--- a/wireframes/Example Tracking Data.xlsx
+++ b/wireframes/Example Tracking Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/389717b1d175df99/Development/Projects/ADS-B-BaseStationReader/wireframes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{D66D2F21-3975-4489-8753-E5AC51D47DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23252324-10AF-496F-8F0A-66F97999FD41}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{D66D2F21-3975-4489-8753-E5AC51D47DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95EE3E9A-E818-4A11-AC9A-0F34545ED7E2}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{5E95568F-2D46-475A-8BA4-C753FD79B547}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Address</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Messages</t>
   </si>
 </sst>
 </file>
@@ -604,9 +607,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D10321-FDF3-4C8C-9A95-4BEC0161FF4E}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -617,7 +622,7 @@
     <col min="12" max="12" width="9.06640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -654,8 +659,11 @@
       <c r="L1" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -692,8 +700,12 @@
       <c r="L2" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M2">
+        <f ca="1">INT(RAND() * 10 + 1.5)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -730,8 +742,12 @@
       <c r="L3" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M3">
+        <f t="shared" ref="M3:M29" ca="1" si="0">INT(RAND() * 10 + 1.5)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -768,8 +784,12 @@
       <c r="L4" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M4">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -806,8 +826,12 @@
       <c r="L5" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -844,8 +868,12 @@
       <c r="L6" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M6">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -882,8 +910,12 @@
       <c r="L7" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>398567</v>
       </c>
@@ -920,8 +952,12 @@
       <c r="L8" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M8">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -940,8 +976,12 @@
       <c r="L9" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M9">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -978,8 +1018,12 @@
       <c r="L10" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M10">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
@@ -1016,8 +1060,12 @@
       <c r="L11" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M11">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -1054,8 +1102,12 @@
       <c r="L12" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M12">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
@@ -1092,8 +1144,12 @@
       <c r="L13" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M13">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -1121,8 +1177,12 @@
       <c r="L14" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M14">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
@@ -1159,8 +1219,12 @@
       <c r="L15" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M15">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
@@ -1197,8 +1261,12 @@
       <c r="L16" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M16">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
@@ -1229,8 +1297,12 @@
       <c r="L17" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M17">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
@@ -1267,8 +1339,12 @@
       <c r="L18" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M18">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>34</v>
       </c>
@@ -1287,8 +1363,12 @@
       <c r="L19" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M19">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
@@ -1325,8 +1405,12 @@
       <c r="L20" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M20">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
@@ -1348,8 +1432,12 @@
       <c r="L21" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M21">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>39</v>
       </c>
@@ -1386,8 +1474,12 @@
       <c r="L22" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M22">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>407914</v>
       </c>
@@ -1424,8 +1516,12 @@
       <c r="L23" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M23">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>406890</v>
       </c>
@@ -1462,8 +1558,12 @@
       <c r="L24" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M24">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>43</v>
       </c>
@@ -1500,8 +1600,12 @@
       <c r="L25" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M25">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>45</v>
       </c>
@@ -1514,8 +1618,12 @@
       <c r="L26" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M26">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>46</v>
       </c>
@@ -1534,8 +1642,12 @@
       <c r="L27" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M27">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>47</v>
       </c>
@@ -1557,8 +1669,12 @@
       <c r="L28" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M28">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>49</v>
       </c>
@@ -1588,6 +1704,10 @@
       </c>
       <c r="L29" s="6">
         <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
